--- a/fisico.xlsx
+++ b/fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44879682837\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44879682837\Desktop\projeto\projeto_1sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68EA75AC-D492-429C-8D46-27BF7258E49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E374BF-7045-4E20-886C-92CAC8BF0F07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{95A9B8D9-9E1B-426C-9C65-7CEC94805C53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>Usuario</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Fernanda@hotmail.com</t>
   </si>
   <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>IdADM</t>
-  </si>
-  <si>
     <t>IdClinica</t>
   </si>
   <si>
@@ -84,15 +78,6 @@
     <t>RG</t>
   </si>
   <si>
-    <t>2387127378-37</t>
-  </si>
-  <si>
-    <t>93489834842-8</t>
-  </si>
-  <si>
-    <t>3284764744-4</t>
-  </si>
-  <si>
     <t>Consulta</t>
   </si>
   <si>
@@ -111,15 +96,6 @@
     <t>Ricardo@bool.com</t>
   </si>
   <si>
-    <t>Mariana@bool.com</t>
-  </si>
-  <si>
-    <t>Alexandrebool.com</t>
-  </si>
-  <si>
-    <t>Henrique@gmail.com</t>
-  </si>
-  <si>
     <t>Mariana</t>
   </si>
   <si>
@@ -132,12 +108,6 @@
     <t>Henrique</t>
   </si>
   <si>
-    <t>Fernando@bool.com</t>
-  </si>
-  <si>
-    <t>81723283728-6</t>
-  </si>
-  <si>
     <t>Helena</t>
   </si>
   <si>
@@ -159,12 +129,6 @@
     <t>Acupuntura</t>
   </si>
   <si>
-    <t>Angiologia</t>
-  </si>
-  <si>
-    <t>Cardiologia</t>
-  </si>
-  <si>
     <t>StatusDeConsulta</t>
   </si>
   <si>
@@ -201,18 +165,9 @@
     <t>RazaoSocial</t>
   </si>
   <si>
-    <t>Avenida Barão De  Limeira</t>
-  </si>
-  <si>
-    <t>10:00 ate 00:00</t>
-  </si>
-  <si>
     <t>SP Medical Group</t>
   </si>
   <si>
-    <t>clinica</t>
-  </si>
-  <si>
     <t>DataDaConsulta</t>
   </si>
   <si>
@@ -243,17 +198,143 @@
     <t>Dor no joelho</t>
   </si>
   <si>
-    <t>Cirurgia Geral</t>
-  </si>
-  <si>
     <t>Radioterapia</t>
+  </si>
+  <si>
+    <t>henrique@gmail.com</t>
+  </si>
+  <si>
+    <t>fernando@gmail.com</t>
+  </si>
+  <si>
+    <t>alexandre@gmail.com</t>
+  </si>
+  <si>
+    <t>mariana@outlook.com</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>11 95436-8769</t>
+  </si>
+  <si>
+    <t>11 98765-6543</t>
+  </si>
+  <si>
+    <t>11 97208-4453</t>
+  </si>
+  <si>
+    <t>11 3456-6543</t>
+  </si>
+  <si>
+    <t>54566266-8</t>
+  </si>
+  <si>
+    <t>32654345-7</t>
+  </si>
+  <si>
+    <t>54636525-3</t>
+  </si>
+  <si>
+    <t>54366362-5</t>
+  </si>
+  <si>
+    <t>Ligia</t>
+  </si>
+  <si>
+    <t>43522543-5</t>
+  </si>
+  <si>
+    <t>11 3456-7654</t>
+  </si>
+  <si>
+    <t>ligia@gmail.com</t>
+  </si>
+  <si>
+    <t>joao</t>
+  </si>
+  <si>
+    <t>t32544444-1</t>
+  </si>
+  <si>
+    <t>11 7656-6377</t>
+  </si>
+  <si>
+    <t>Rua Estado de Israel 240, São Paulo, Estado de São Paulo, 04022-000</t>
+  </si>
+  <si>
+    <t>R Sao Antonio, 232 - Vila Universal, Barueri - SP, 06407-140</t>
+  </si>
+  <si>
+    <t>Av. Paulista, 1578 - Bela Vista, São Paulo - SP, 01310-200</t>
+  </si>
+  <si>
+    <t>Av. Ibirapuera - Indianópolis, 2927,  São Paulo - SP, 04029-200</t>
+  </si>
+  <si>
+    <t>R. Vitória, 120 - Vila Sao Jorge, Barueri - SP, 06402-030</t>
+  </si>
+  <si>
+    <t>R. Ver. Geraldo de Camargo, 66 - Santa Luzia, Ribeirão Pires - SP, 09405-380</t>
+  </si>
+  <si>
+    <t>DataDeNascimento</t>
+  </si>
+  <si>
+    <t>EnderecoDoPaciente</t>
+  </si>
+  <si>
+    <t>TiposDeUsuarios</t>
+  </si>
+  <si>
+    <t>Classificacao</t>
+  </si>
+  <si>
+    <t>adm</t>
+  </si>
+  <si>
+    <t>medicos</t>
+  </si>
+  <si>
+    <t>pacientes</t>
+  </si>
+  <si>
+    <t>joao@hotmail.com</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>54356-SP</t>
+  </si>
+  <si>
+    <t>53452-SP</t>
+  </si>
+  <si>
+    <t>65463-SP</t>
+  </si>
+  <si>
+    <t>Anestesiologia</t>
+  </si>
+  <si>
+    <t>Psiquiatria</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>Av. Barão Limeira, 532, São Paulo, SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinica Possarle </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,8 +356,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +374,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,8 +413,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -340,24 +434,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -680,23 +796,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93626CBA-0DB1-4318-8A10-0CE94850CE3F}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="45.77734375" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -749,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -765,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -781,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -797,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -813,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -829,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -845,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -853,557 +969,734 @@
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="G21" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>21733729379</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="11">
+        <v>43164</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>73556944057</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="11">
+        <v>37095</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>16839338002</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="11">
+        <v>28773</v>
+      </c>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>14332654765</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="11">
+        <v>31333</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
+        <v>94839859000</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="11">
+        <v>30602</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>91305348010</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="11">
+        <v>27633</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="D38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10">
+        <v>43534</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10">
+        <v>43872</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>3</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10">
+        <v>43910</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>4</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9">
+        <v>8</v>
+      </c>
+      <c r="C43" s="9">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>6</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>7</v>
+      </c>
+      <c r="B45" s="9">
+        <v>8</v>
+      </c>
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="F47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>88731827</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J49" s="7">
+        <v>87213837</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>2</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>4</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>5</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>4</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>1</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>21733729379</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5">
-        <v>93497237428</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <v>47324784738</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>4</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5">
-        <v>82173812378</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>1</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11">
-        <v>43534</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>2</v>
-      </c>
-      <c r="B34" s="10">
-        <v>2</v>
-      </c>
-      <c r="C34" s="10">
-        <v>2</v>
-      </c>
-      <c r="D34" s="10">
-        <v>2</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11">
-        <v>43872</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>3</v>
-      </c>
-      <c r="B35" s="10">
-        <v>3</v>
-      </c>
-      <c r="C35" s="10">
-        <v>2</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11">
-        <v>43910</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>4</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>2</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>5</v>
-      </c>
-      <c r="B37" s="10">
-        <v>8</v>
-      </c>
-      <c r="C37" s="10">
-        <v>3</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
-        <v>6</v>
-      </c>
-      <c r="B38" s="10">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10">
-        <v>3</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
-        <v>7</v>
-      </c>
-      <c r="B39" s="10">
-        <v>8</v>
-      </c>
-      <c r="C39" s="10">
-        <v>3</v>
-      </c>
-      <c r="D39" s="10">
-        <v>3</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="F41" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>1</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="8">
-        <v>1</v>
-      </c>
-      <c r="G43" s="8">
-        <v>88731827</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" s="8">
-        <v>87213837</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>2</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>3</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>4</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>5</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>1</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>2</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>3</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1416,6 +1709,9 @@
     <hyperlink ref="C7" r:id="rId6" xr:uid="{112FD25D-5858-4A3C-B29F-AEF896E35725}"/>
     <hyperlink ref="C9" r:id="rId7" xr:uid="{704AC4B5-C535-4E89-9A84-049D5D8A8562}"/>
     <hyperlink ref="C10" r:id="rId8" xr:uid="{AAD2A939-C9BB-4B6A-9CD9-2D9EE9373DCD}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{DFDCFB14-ADB4-4EEB-ACAD-FFA300C59DE1}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{EEEAB4A7-FF3E-4DE8-8665-DA80EF61A81A}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{5888DED6-8AE7-4A26-A95C-1BBBCB365428}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
